--- a/test.xlsx
+++ b/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\eldorado-ia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\datascience-proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>idade</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>devendo</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -79,12 +76,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +366,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,9 +392,6 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -457,7 +452,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
